--- a/mgmt-documents/AW_status - Personal.xlsx
+++ b/mgmt-documents/AW_status - Personal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Austin\mthree\repos\final-project-repo-austinwongdev\mgmt-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F8931-9807-4C5A-B5FB-1677957A555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B6283-3216-4A73-B723-13648675C65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4095" windowWidth="21600" windowHeight="11835" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status Report 8-27" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -361,8 +361,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,14 +435,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,7 +488,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,8 +528,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -595,34 +623,13 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -634,11 +641,29 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="1" xfId="39" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="10" borderId="1" xfId="39" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="1" xfId="39" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="11" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="11" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -658,6 +683,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="39" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -677,6 +703,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="40" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1037,15 +1064,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1094,9 +1121,9 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1106,9 +1133,9 @@
         <v>21</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -1581,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11D01E5-4373-4DAD-AA18-4DB1BB006D5A}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="185" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="113" zoomScaleNormal="185" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -1596,15 +1623,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1653,9 +1680,9 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1665,9 +1692,9 @@
         <v>21</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -1850,7 +1877,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="13"/>
@@ -1904,7 +1931,7 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="13"/>
@@ -2003,7 +2030,7 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="13"/>
@@ -2169,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2755D9C-88E6-44E4-9B88-8D336F63A0A1}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="113" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="113" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2182,15 +2209,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2239,9 +2266,9 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2251,9 +2278,9 @@
         <v>21</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2399,184 +2426,184 @@
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
         <v>1</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="39">
         <v>44436</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="27">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38">
         <v>1</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="39">
         <v>44436</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31">
         <v>0.9</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="32">
         <v>44436</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="38"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39">
-        <v>0</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="39">
         <v>44436</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39">
-        <v>0</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38">
+        <v>1</v>
+      </c>
+      <c r="E23" s="39">
         <v>44436</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="27">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38">
         <v>1</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="39">
         <v>44436</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39">
-        <v>0</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
         <v>44436</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="38"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="27">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38">
         <v>1</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="39">
         <v>44436</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="27">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38">
         <v>1</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="39">
         <v>44437</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="27">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38">
         <v>1</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="39">
         <v>44437</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="36">
-        <v>0</v>
-      </c>
-      <c r="E29" s="37">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38">
+        <v>1</v>
+      </c>
+      <c r="E29" s="39">
         <v>44438</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-      <c r="E30" s="37">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38">
+        <v>1</v>
+      </c>
+      <c r="E30" s="39">
         <v>44438</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -2584,8 +2611,8 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="27">
-        <v>0</v>
+      <c r="D31" s="31">
+        <v>0.25</v>
       </c>
       <c r="E31" s="24">
         <v>44439</v>
@@ -2594,30 +2621,30 @@
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="27">
-        <v>0</v>
-      </c>
-      <c r="E32" s="24">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="43">
         <v>44439</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="27">
-        <v>0</v>
-      </c>
-      <c r="E33" s="24">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42">
+        <v>0</v>
+      </c>
+      <c r="E33" s="43">
         <v>44439</v>
       </c>
       <c r="F33" s="13"/>
@@ -2629,7 +2656,7 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="27">
+      <c r="D34" s="31">
         <v>0</v>
       </c>
       <c r="E34" s="24">
@@ -2644,7 +2671,7 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="27">
+      <c r="D35" s="31">
         <v>0</v>
       </c>
       <c r="E35" s="24">
@@ -2659,8 +2686,8 @@
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="28">
-        <v>0</v>
+      <c r="D36" s="31">
+        <v>0.5</v>
       </c>
       <c r="E36" s="25">
         <v>44440</v>
@@ -2674,7 +2701,7 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="27">
+      <c r="D37" s="31">
         <v>0</v>
       </c>
       <c r="E37" s="24">
@@ -2689,7 +2716,7 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="27">
+      <c r="D38" s="31">
         <v>0</v>
       </c>
       <c r="E38" s="24">
@@ -2704,7 +2731,7 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="27">
+      <c r="D39" s="31">
         <v>0</v>
       </c>
       <c r="E39" s="24">
@@ -2717,7 +2744,7 @@
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="27"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="13"/>
@@ -2726,7 +2753,7 @@
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="27"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="13"/>
@@ -2735,7 +2762,7 @@
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="28"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="14"/>
@@ -2744,7 +2771,7 @@
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="28"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="14"/>
@@ -2753,7 +2780,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="29"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2762,7 +2789,7 @@
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="29"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -2771,7 +2798,7 @@
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="29"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2780,7 +2807,7 @@
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="29"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -2789,7 +2816,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="29"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -2835,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37E1B8-0EDD-4932-9EE1-20FA5689318C}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="113" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2850,15 +2877,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2907,9 +2934,9 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2919,9 +2946,9 @@
         <v>21</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -3152,7 +3179,7 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="13"/>
@@ -3206,7 +3233,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="13"/>
@@ -3305,7 +3332,7 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" s="19" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="13"/>
